--- a/Excel Files/WC_Automation_Testcases.xlsx
+++ b/Excel Files/WC_Automation_Testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="1000"/>
+    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="147">
   <si>
     <t>Mavens i
 Welldercare
@@ -153,6 +153,9 @@
     <t>1. Channel partner should be created successfully</t>
   </si>
   <si>
+    <t>Channel partner not created</t>
+  </si>
+  <si>
     <t>emarson.s@mavens-i.com</t>
   </si>
   <si>
@@ -170,6 +173,10 @@
     <t>1. Care manager should be created successfully</t>
   </si>
   <si>
+    <t>UserId :1685177008314
+Care manager created successfully</t>
+  </si>
+  <si>
     <t>User Onboarding_TC_03</t>
   </si>
   <si>
@@ -184,6 +191,10 @@
     <t>1. Doctor should be created successfully</t>
   </si>
   <si>
+    <t>1685177411973
+Doctor created successfully</t>
+  </si>
+  <si>
     <t>User Onboarding_TC_04</t>
   </si>
   <si>
@@ -198,6 +209,10 @@
     <t>1. Caretaker should be created successfully</t>
   </si>
   <si>
+    <t>1685182712651
+Enquiry created successfully</t>
+  </si>
+  <si>
     <t>User Onboarding_TC_05</t>
   </si>
   <si>
@@ -210,6 +225,10 @@
   </si>
   <si>
     <t>1. Pharmacist should be created successfully</t>
+  </si>
+  <si>
+    <t>1685177514481
+Pharmacist created successfully</t>
   </si>
   <si>
     <t>User Onboarding_TC_06</t>
@@ -242,6 +261,10 @@
     <t>1. Veteran onbording should be created successfully</t>
   </si>
   <si>
+    <t>status :Completed
+Veteran not onboarded</t>
+  </si>
+  <si>
     <t>User Onboarding_TC_08</t>
   </si>
   <si>
@@ -271,6 +294,10 @@
     <t>1. Veteran should be activated successfully</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Veteran Activated successfully</t>
+  </si>
+  <si>
     <t>User Onboarding_TC_10</t>
   </si>
   <si>
@@ -285,6 +312,10 @@
     <t>1. Caregiver should be activated successfully</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Caregiver Activated successfully</t>
+  </si>
+  <si>
     <t>Dr&amp;CTAssigns_TC_01</t>
   </si>
   <si>
@@ -298,6 +329,10 @@
     <t>1. Doctor should be assigned  successfully</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Doctor not assigned</t>
+  </si>
+  <si>
     <t>Dr&amp;CTAssigns_TC_02</t>
   </si>
   <si>
@@ -309,6 +344,10 @@
   </si>
   <si>
     <t>1. Caretaker should be assigned  successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Caretaker assigned successfully</t>
   </si>
   <si>
     <t>Change Password_TC_01</t>
@@ -325,6 +364,9 @@
     <t>1.New Password should be created successfully</t>
   </si>
   <si>
+    <t>Password created successfully</t>
+  </si>
+  <si>
     <t>Forgot Password_TC_02</t>
   </si>
   <si>
@@ -334,6 +376,10 @@
     <t xml:space="preserve">1. Run forgotPassword method
 Verify that the new password created successfullly.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Password created successfully</t>
   </si>
   <si>
     <t>Appointments_TC_01</t>
@@ -483,10 +529,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -560,9 +606,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,15 +629,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,10 +644,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,7 +661,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -630,7 +676,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,20 +687,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,7 +707,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,6 +722,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -698,7 +744,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,7 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,13 +813,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,55 +897,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,37 +957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,48 +969,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -953,27 +999,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,6 +1035,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,6 +1096,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1028,24 +1113,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,7 +1126,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,140 +1141,137 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1238,6 +1310,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1630,499 +1732,499 @@
   </sheetPr>
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.72727272727273" style="30"/>
+    <col min="1" max="16384" width="8.72727272727273" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2140,8 +2242,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -2151,141 +2253,141 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:6">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:6">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:4">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="33">
         <f>COUNTIF('User Onboarding'!I:I,"Simple")</f>
         <v>0</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="33">
         <f>COUNTIF('User Onboarding'!I:I,"Medium")</f>
         <v>0</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="33">
         <f>COUNTIF('User Onboarding'!I:I,"High")</f>
         <v>10</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="34">
         <f>SUM(B13:D13)</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6">
@@ -2300,13 +2402,13 @@
         <f>COUNTIF('Doctor&amp;CaretakerAssigns'!I:I,"High")</f>
         <v>4</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="36">
         <f>SUM(B14:D14)</f>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="6">
@@ -2321,159 +2423,159 @@
         <f>COUNTIF(Appointments!I:I,"High")</f>
         <v>10</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="36">
         <f>SUM(B15:D15)</f>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="36">
         <f>SUM(B13:B15)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="36">
         <f>SUM(C13:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="36">
         <f>SUM(D13:D15)</f>
         <v>24</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="36">
         <f>SUM(E13:E15)</f>
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="38">
         <f t="shared" ref="B21:B25" si="0">SUM(D21:F21)</f>
         <v>10</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="39">
         <f t="shared" ref="C21:C25" si="1">SUM(D21,E21)</f>
         <v>10</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="39">
         <f>COUNTIF('User Onboarding'!K:K,"Pass")</f>
-        <v>10</v>
-      </c>
-      <c r="E21" s="29">
+        <v>6</v>
+      </c>
+      <c r="E21" s="39">
         <f>COUNTIF('User Onboarding'!K:K,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="29">
+        <v>4</v>
+      </c>
+      <c r="F21" s="39">
         <f>COUNTIF('User Onboarding'!K:K,"Hold")</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="39">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="39">
         <f>COUNTIF('Doctor&amp;CaretakerAssigns'!K:K,"Pass")</f>
         <v>4</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="39">
         <f>COUNTIF('Doctor&amp;CaretakerAssigns'!K:K,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="39">
         <f>COUNTIF('Doctor&amp;CaretakerAssigns'!K:K,"Hold")</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="38">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="39">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="39">
         <f>COUNTIF(Appointments!K:K,"Pass")</f>
         <v>10</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="39">
         <f>COUNTIF(Appointments!K:K,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="39">
         <f>COUNTIF(Appointments!K:K,"Hold")</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="38">
         <f>SUM(B21:B23)</f>
         <v>24</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="39">
         <f>SUM(C21,C23)</f>
         <v>20</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="38">
         <f>SUM(D21:D23)</f>
-        <v>24</v>
-      </c>
-      <c r="E24" s="28">
+        <v>20</v>
+      </c>
+      <c r="E24" s="38">
         <f>SUM(E21:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="28">
+        <v>4</v>
+      </c>
+      <c r="F24" s="38">
         <f>SUM(F21:F23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="22"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2488,8 +2590,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -2501,9 +2603,10 @@
     <col min="5" max="5" width="30.9090909090909" customWidth="1"/>
     <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
     <col min="7" max="7" width="28.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="10.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="19.0909090909091" style="13" customWidth="1"/>
     <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
     <col min="10" max="10" width="19.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="8.72727272727273" style="6"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
@@ -2525,16 +2628,16 @@
       <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="19" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -2560,18 +2663,20 @@
       <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>23</v>
+      <c r="J2" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:11">
@@ -2582,29 +2687,31 @@
         <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="10" t="s">
+      <c r="G3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>23</v>
+      <c r="J3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:11">
@@ -2615,28 +2722,30 @@
         <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10" t="s">
+      <c r="G4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2648,28 +2757,30 @@
         <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10" t="s">
+      <c r="G5" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2681,28 +2792,30 @@
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10" t="s">
+      <c r="G6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="12" t="s">
+      <c r="J6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2714,29 +2827,28 @@
         <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>43</v>
+      <c r="J7" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="41" customHeight="1" spans="1:11">
@@ -2747,29 +2859,31 @@
         <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>23</v>
+      <c r="J8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" ht="41" customHeight="1" spans="1:11">
@@ -2780,26 +2894,25 @@
         <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>43</v>
+      <c r="J9" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>23</v>
@@ -2813,28 +2926,30 @@
         <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="10" t="s">
+      <c r="G10" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2846,122 +2961,112 @@
         <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="J11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="41" customHeight="1" spans="1:11">
+    <row r="12" ht="41" customHeight="1" spans="1:10">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" ht="41" customHeight="1" spans="1:11">
+      <c r="G12" s="17"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" ht="41" customHeight="1" spans="1:10">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" ht="41" customHeight="1" spans="1:11">
+      <c r="G13" s="17"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" ht="41" customHeight="1" spans="1:10">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" ht="41" customHeight="1" spans="1:11">
+      <c r="G14" s="17"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" ht="41" customHeight="1" spans="1:10">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" ht="41" customHeight="1" spans="1:11">
+      <c r="G15" s="17"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" ht="41" customHeight="1" spans="1:10">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" ht="41" customHeight="1" spans="1:11">
+      <c r="G16" s="17"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" ht="41" customHeight="1" spans="1:10">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="G17" s="17"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="17"/>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10:I11">
+      <formula1>"Simple, Medium, High"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10:B11">
       <formula1>"UI,Functional,Security"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K11">
-      <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10:F11">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10:I11">
-      <formula1>"Simple, Medium, High"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K11">
+      <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2988,8 +3093,8 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3049,29 +3154,31 @@
         <v>37</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>92</v>
+      </c>
       <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>23</v>
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:11">
@@ -3082,28 +3189,30 @@
         <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
       <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3115,28 +3224,30 @@
         <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
       <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3148,28 +3259,30 @@
         <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="8"/>
+        <v>101</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3220,10 +3333,11 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="8"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="12"/>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" ht="41" customHeight="1" spans="1:11">
       <c r="A10" s="6"/>
@@ -3318,17 +3432,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9:I10">
+      <formula1>"Simple, Medium, High"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9:B10">
       <formula1>"UI,Functional,Security"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3 K4:K10">
-      <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9:F10">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9:I10">
-      <formula1>"Simple, Medium, High"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3 K4:K10">
+      <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3355,16 +3469,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="2"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="22.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="32.3636363636364" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="28.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="10.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="19.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="8.72727272727273" style="2" collapsed="1"/>
+    <col min="2" max="2" width="23.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.3636363636364" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
@@ -3410,26 +3524,26 @@
         <v>37</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>23</v>
@@ -3443,26 +3557,26 @@
         <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>23</v>
@@ -3476,26 +3590,26 @@
         <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>23</v>
@@ -3509,26 +3623,26 @@
         <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>23</v>
@@ -3542,26 +3656,26 @@
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>23</v>
@@ -3575,26 +3689,26 @@
         <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>23</v>
@@ -3608,26 +3722,26 @@
         <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>23</v>
@@ -3641,26 +3755,26 @@
         <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>23</v>
@@ -3674,26 +3788,26 @@
         <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>23</v>
@@ -3707,26 +3821,26 @@
         <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>23</v>
@@ -3825,17 +3939,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11:I12">
+      <formula1>"Simple, Medium, High"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11:B12">
       <formula1>"UI,Functional,Security"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K12">
-      <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11:F12">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11:I12">
-      <formula1>"Simple, Medium, High"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K12">
+      <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/Excel Files/WC_Automation_Testcases.xlsx
+++ b/Excel Files/WC_Automation_Testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="1000" activeTab="3"/>
+    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="159">
   <si>
     <t>Mavens i
 Welldercare
@@ -396,6 +396,9 @@
     <t>1. liverequest should be created successfully</t>
   </si>
   <si>
+    <t>Emergency Appointment completed</t>
+  </si>
+  <si>
     <t>Appointments_TC_02</t>
   </si>
   <si>
@@ -408,6 +411,9 @@
   </si>
   <si>
     <t>1. liverequest should be cancelled successfully</t>
+  </si>
+  <si>
+    <t>Emergency request cancelled</t>
   </si>
   <si>
     <t>Appointments_TC_03</t>
@@ -426,7 +432,29 @@
 2.Upcoming appointment should be completed </t>
   </si>
   <si>
+    <t>Appointment completed successfully</t>
+  </si>
+  <si>
     <t>Appointments_TC_04</t>
+  </si>
+  <si>
+    <t>Verify the medicine refilled by pharmacist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run acceptMedicineRequest method
+Verify that the pharmacist accept the medicine request successfullly.
+Verify that the caregiver approve the medicine refill successfully
+</t>
+  </si>
+  <si>
+    <t>1. Pharmacist should be accept the medicine request
+2. Caregiver should be approve the medicine refill</t>
+  </si>
+  <si>
+    <t>Medicine approved successfully</t>
+  </si>
+  <si>
+    <t>Appointments_TC_05</t>
   </si>
   <si>
     <t>Verify the caregiver request appointment</t>
@@ -440,7 +468,10 @@
     <t>1. Caregiver should be create request appointment successfully</t>
   </si>
   <si>
-    <t>Appointments_TC_05</t>
+    <t>Request appointment created successfully</t>
+  </si>
+  <si>
+    <t>Appointments_TC_06</t>
   </si>
   <si>
     <t>Verify the veteran request appointment</t>
@@ -454,7 +485,7 @@
     <t>1. Veteran should be create request appointment successfully</t>
   </si>
   <si>
-    <t>Appointments_TC_06</t>
+    <t>Appointments_TC_07</t>
   </si>
   <si>
     <t>Verify the request appointment accept by doctor</t>
@@ -465,10 +496,13 @@
 </t>
   </si>
   <si>
-    <t>1. Doctor should be accpt the request appointment successfully</t>
-  </si>
-  <si>
-    <t>Appointments_TC_07</t>
+    <t>1. Doctor should be accept the request appointment successfully</t>
+  </si>
+  <si>
+    <t>Request appointment accepted successfully</t>
+  </si>
+  <si>
+    <t>Appointments_TC_08</t>
   </si>
   <si>
     <t>Verify the upcoming appointment cancel by doctor</t>
@@ -482,7 +516,10 @@
     <t>1. Doctor should be cancel the upcoming appointment successfully</t>
   </si>
   <si>
-    <t>Appointments_TC_08</t>
+    <t>Upcoming appointment cancelled successfully</t>
+  </si>
+  <si>
+    <t>Appointments_TC_09</t>
   </si>
   <si>
     <t>Verify the request appointment cancel by doctor</t>
@@ -496,7 +533,10 @@
     <t>1. Doctor should be cancel the request appointment successfully</t>
   </si>
   <si>
-    <t>Appointments_TC_09</t>
+    <t>Request appointment cancelled successfully</t>
+  </si>
+  <si>
+    <t>Appointments_TC_10</t>
   </si>
   <si>
     <t>Verify the request appointment cancel by Veteran</t>
@@ -510,7 +550,7 @@
     <t>1. Veteran should be cancel the request appointment successfully</t>
   </si>
   <si>
-    <t>Appointments_TC_10</t>
+    <t>Appointments_TC_11</t>
   </si>
   <si>
     <t>Verify the request appointment cancel by Caregiver</t>
@@ -529,10 +569,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -607,6 +647,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -614,23 +661,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,11 +675,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,23 +691,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,16 +708,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,6 +724,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -722,14 +747,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,9 +783,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,13 +835,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +895,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,49 +949,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,79 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,36 +1065,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1065,6 +1075,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,11 +1114,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,164 +1161,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,15 +1324,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,12 +1345,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1323,19 +1372,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1733,7 +1773,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:S23"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2248,8 +2288,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="27.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="22.6363636363636" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5454545454545" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
@@ -2390,15 +2430,15 @@
       <c r="A14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <f>COUNTIF('Doctor&amp;CaretakerAssigns'!I:I,"Simple")</f>
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <f>COUNTIF('Doctor&amp;CaretakerAssigns'!I:I,"Medium")</f>
         <v>0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <f>COUNTIF('Doctor&amp;CaretakerAssigns'!I:I,"High")</f>
         <v>4</v>
       </c>
@@ -2411,21 +2451,21 @@
       <c r="A15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <f>COUNTIF(Appointments!I:I,"Simple")</f>
         <v>0</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <f>COUNTIF(Appointments!I:I,"Medium")</f>
         <v>0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <f>COUNTIF(Appointments!I:I,"High")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="36">
         <f>SUM(B15:D15)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2442,11 +2482,11 @@
       </c>
       <c r="D16" s="36">
         <f>SUM(D13:D15)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="36">
         <f>SUM(E13:E15)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2596,56 +2636,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="2"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="22.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="32.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="30.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="28.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="19.0909090909091" style="13" customWidth="1"/>
-    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="19.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="8.72727272727273" style="6"/>
+    <col min="1" max="1" width="8.72727272727273" style="2" collapsed="1"/>
+    <col min="2" max="2" width="23.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.0909090909091" style="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.72727272727273" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:11">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2663,24 +2703,24 @@
       <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:11">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -2698,24 +2738,24 @@
       <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:11">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2733,24 +2773,24 @@
       <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:11">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2768,24 +2808,24 @@
       <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:11">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2803,24 +2843,24 @@
       <c r="F6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="41" customHeight="1" spans="1:11">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2838,21 +2878,21 @@
       <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="41" customHeight="1" spans="1:11">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2870,24 +2910,24 @@
       <c r="F8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" ht="41" customHeight="1" spans="1:11">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2905,21 +2945,21 @@
       <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="41" customHeight="1" spans="1:11">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2937,24 +2977,24 @@
       <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="41" customHeight="1" spans="1:11">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2972,101 +3012,101 @@
       <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="41" customHeight="1" spans="1:10">
-      <c r="A12" s="6"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="14"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" ht="41" customHeight="1" spans="1:10">
-      <c r="A13" s="6"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="17"/>
+      <c r="G13" s="14"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="17"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" ht="41" customHeight="1" spans="1:10">
-      <c r="A14" s="6"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="14"/>
       <c r="I14" s="22"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" ht="41" customHeight="1" spans="1:10">
-      <c r="A15" s="6"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="14"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="17"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" ht="41" customHeight="1" spans="1:10">
-      <c r="A16" s="6"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="14"/>
       <c r="I16" s="22"/>
-      <c r="J16" s="17"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" ht="41" customHeight="1" spans="1:10">
-      <c r="A17" s="6"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="14"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10:I11">
-      <formula1>"Simple, Medium, High"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10:B11">
       <formula1>"UI,Functional,Security"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K11">
+      <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10:F11">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K11">
-      <formula1>"Pass,Fail"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10:I11">
+      <formula1>"Simple, Medium, High"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3093,61 +3133,61 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="2"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="26.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="32.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="30.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="28.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="10.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="19.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="8.72727272727273" style="2" collapsed="1"/>
+    <col min="2" max="2" width="23.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.3636363636364" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.1818181818182" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:11">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -3174,7 +3214,7 @@
       <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="15" t="s">
         <v>44</v>
       </c>
       <c r="K2" t="s">
@@ -3182,7 +3222,7 @@
       </c>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:11">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3209,7 +3249,7 @@
       <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="15" t="s">
         <v>44</v>
       </c>
       <c r="K3" t="s">
@@ -3217,7 +3257,7 @@
       </c>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:11">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -3244,7 +3284,7 @@
       <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="15" t="s">
         <v>44</v>
       </c>
       <c r="K4" t="s">
@@ -3252,7 +3292,7 @@
       </c>
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:11">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3279,7 +3319,7 @@
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="15" t="s">
         <v>44</v>
       </c>
       <c r="K5" t="s">
@@ -3287,7 +3327,7 @@
       </c>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:11">
-      <c r="A6" s="6"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -3296,11 +3336,11 @@
       <c r="G6" s="9"/>
       <c r="H6" s="8"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" ht="41" customHeight="1" spans="1:11">
-      <c r="A7" s="6"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -3309,11 +3349,11 @@
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="12"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" ht="41" customHeight="1" spans="1:11">
-      <c r="A8" s="6"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -3322,11 +3362,11 @@
       <c r="G8" s="9"/>
       <c r="H8" s="8"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" ht="41" customHeight="1" spans="1:11">
-      <c r="A9" s="6"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -3334,13 +3374,13 @@
       <c r="F9" s="10"/>
       <c r="G9" s="9"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="15"/>
       <c r="K9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="41" customHeight="1" spans="1:11">
-      <c r="A10" s="6"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -3349,11 +3389,11 @@
       <c r="G10" s="9"/>
       <c r="H10" s="8"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" ht="41" customHeight="1" spans="1:11">
-      <c r="A11" s="6"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -3366,7 +3406,7 @@
       <c r="K11" s="8"/>
     </row>
     <row r="12" ht="41" customHeight="1" spans="1:11">
-      <c r="A12" s="6"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -3379,7 +3419,7 @@
       <c r="K12" s="8"/>
     </row>
     <row r="13" ht="41" customHeight="1" spans="1:11">
-      <c r="A13" s="6"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3392,7 +3432,7 @@
       <c r="K13" s="8"/>
     </row>
     <row r="14" ht="41" customHeight="1" spans="1:11">
-      <c r="A14" s="6"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -3405,7 +3445,7 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" ht="41" customHeight="1" spans="1:11">
-      <c r="A15" s="6"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -3418,7 +3458,7 @@
       <c r="K15" s="8"/>
     </row>
     <row r="16" ht="41" customHeight="1" spans="1:11">
-      <c r="A16" s="6"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -3432,17 +3472,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9:I10">
-      <formula1>"Simple, Medium, High"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9:B10">
       <formula1>"UI,Functional,Security"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3 K4:K10">
+      <formula1>"Pass,Fail"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9:F10">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3 K4:K10">
-      <formula1>"Pass,Fail"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9:I10">
+      <formula1>"Simple, Medium, High"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -3461,63 +3501,64 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.25"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="2" collapsed="1"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.3636363636364" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.72727272727273" style="2"/>
+    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="22.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="32.3636363636364" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="28.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="27.2727272727273" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
+    <col min="10" max="10" width="19.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="8.72727272727273" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" ht="41" customHeight="1" spans="1:11">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -3538,431 +3579,481 @@
       <c r="G2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
       <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:11">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
       <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:11">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
       <c r="I4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="41" customHeight="1" spans="1:11">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
       <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:11">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="H6" t="s">
+        <v>131</v>
+      </c>
       <c r="I6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="41" customHeight="1" spans="1:11">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
       <c r="I7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" ht="41" customHeight="1" spans="1:11">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="8"/>
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
       <c r="I8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="41" customHeight="1" spans="1:11">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>144</v>
+      </c>
+      <c r="H9" t="s">
+        <v>145</v>
+      </c>
       <c r="I9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="41" customHeight="1" spans="1:11">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="8"/>
+        <v>149</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
       <c r="I10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" ht="41" customHeight="1" spans="1:11">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
       <c r="I11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="41" customHeight="1" spans="1:11">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="12"/>
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" ht="41" customHeight="1" spans="1:11">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" ht="41" customHeight="1" spans="1:11">
-      <c r="A14" s="6"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" ht="41" customHeight="1" spans="1:10">
+      <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" ht="41" customHeight="1" spans="1:11">
-      <c r="A15" s="6"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" ht="41" customHeight="1" spans="1:10">
+      <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" ht="41" customHeight="1" spans="1:11">
-      <c r="A16" s="6"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" ht="41" customHeight="1" spans="1:10">
+      <c r="A16" s="4"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" ht="41" customHeight="1" spans="1:11">
-      <c r="A17" s="6"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" ht="41" customHeight="1" spans="1:10">
+      <c r="A17" s="4"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" ht="41" customHeight="1" spans="1:11">
-      <c r="A18" s="6"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" ht="41" customHeight="1" spans="1:10">
+      <c r="A18" s="4"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" ht="41" customHeight="1" spans="1:10">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11:I12">
-      <formula1>"Simple, Medium, High"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12:B13">
       <formula1>"UI,Functional,Security"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4 K5 K6:K13">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12:F13">
       <formula1>"Positive, Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4:K12">
-      <formula1>"Pass,Fail"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12:I13">
+      <formula1>"Simple, Medium, High"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
     <hyperlink ref="J4" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J5" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
     <hyperlink ref="J6" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
     <hyperlink ref="J7" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
     <hyperlink ref="J8" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
     <hyperlink ref="J9" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
     <hyperlink ref="J10" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
     <hyperlink ref="J11" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J12" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
     <hyperlink ref="J3" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J5" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Excel Files/WC_Automation_Testcases.xlsx
+++ b/Excel Files/WC_Automation_Testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="1000" activeTab="4"/>
+    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Welcome" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="User Onboarding" sheetId="2" r:id="rId3"/>
     <sheet name="Doctor&amp;CaretakerAssigns" sheetId="4" r:id="rId4"/>
     <sheet name="Appointments" sheetId="5" r:id="rId5"/>
+    <sheet name="ProfileUpdate" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="195">
   <si>
     <t>Mavens i
 Welldercare
@@ -562,6 +563,128 @@
   </si>
   <si>
     <t>1. Caregiver should be cancel the request appointment successfully</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_01</t>
+  </si>
+  <si>
+    <t>Verify that channel partner profile update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run channelPartnerProfileUpdate() method
+Verify that the channel partner profile updated successfullly.
+</t>
+  </si>
+  <si>
+    <t>1. Channel partner profile should be updated successfully</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_02</t>
+  </si>
+  <si>
+    <t>Verify that Care manager profile update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run caremanagerProfileUpdate() method
+Verify that the care manager profile updated successfullly.
+</t>
+  </si>
+  <si>
+    <t>1. Care manager profile should be updated successfully</t>
+  </si>
+  <si>
+    <t>Care manager profile updated</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_03</t>
+  </si>
+  <si>
+    <t>Verify that Doctor profile update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run DoctorProfileUpdate() method
+Verify that the Doctor profile updated successfullly.
+</t>
+  </si>
+  <si>
+    <t>1.Doctor profile should be updated successfully</t>
+  </si>
+  <si>
+    <t>Doctor profile updated</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_04</t>
+  </si>
+  <si>
+    <t>Verify that Caretaker profile update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run caretakerProfileUpdate() method
+Verify that the Caretaker profile updated successfullly.
+</t>
+  </si>
+  <si>
+    <t>1.Caretaker profile should be updated successfully</t>
+  </si>
+  <si>
+    <t>Caretaker profile updated</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_05</t>
+  </si>
+  <si>
+    <t>Verify that Pharmacist profile update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run pharmacistProfileUpdate() method
+Verify that the Pharmacist profile updated successfullly.
+</t>
+  </si>
+  <si>
+    <t>1.Pharmacist profile should be updated successfully</t>
+  </si>
+  <si>
+    <t>Pharmacist profile updated</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_06</t>
+  </si>
+  <si>
+    <t>Verify that Veteran profile update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run veteranProfileUpdate() method
+Verify that the vateran profile updated successfullly.
+</t>
+  </si>
+  <si>
+    <t>1.Veteran profile should be updated successfully</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_07</t>
+  </si>
+  <si>
+    <t>Verify that Caregiver profile update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Run caregiverProfileUpdate() method
+Verify that the caregiver profile updated successfullly.
+</t>
+  </si>
+  <si>
+    <t>1.Caregiver profile should be updated successfully</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_08</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_09</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_10</t>
+  </si>
+  <si>
+    <t>Profile_Update_TC_11</t>
   </si>
 </sst>
 </file>
@@ -569,10 +692,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -660,24 +783,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,7 +801,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,9 +823,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,19 +837,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -746,8 +852,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,7 +870,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,14 +891,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,67 +958,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,37 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,19 +1018,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,37 +1132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1065,36 +1188,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,17 +1217,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,9 +1276,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1166,148 +1289,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1778,7 +1901,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.72727272727273" style="40"/>
+    <col min="1" max="16384" width="8.72727272727273" style="40" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3099,11 +3222,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10:B11">
       <formula1>"UI,Functional,Security"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10:F11">
+      <formula1>"Positive, Negative"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K11">
       <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10:F11">
-      <formula1>"Positive, Negative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10:I11">
       <formula1>"Simple, Medium, High"</formula1>
@@ -3134,21 +3257,21 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="2" collapsed="1"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.72727272727273" style="2"/>
+    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="26.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="32.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="30.9090909090909" customWidth="1"/>
+    <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="28.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="10.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
+    <col min="10" max="10" width="19.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
@@ -3327,8 +3450,12 @@
       </c>
     </row>
     <row r="6" ht="41" customHeight="1" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9"/>
@@ -3475,11 +3602,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9:B10">
       <formula1>"UI,Functional,Security"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9:F10">
+      <formula1>"Positive, Negative"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3 K4:K10">
       <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9:F10">
-      <formula1>"Positive, Negative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9:I10">
       <formula1>"Simple, Medium, High"</formula1>
@@ -3503,8 +3630,570 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="8.72727272727273" style="2" collapsed="1"/>
+    <col min="2" max="2" width="23.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.3636363636364" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.9090909090909" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.8181818181818" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.2727272727273" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.1818181818182" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.72727272727273" style="4" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" ht="41" customHeight="1" spans="1:11">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="41" customHeight="1" spans="1:11">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="41" customHeight="1" spans="1:11">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="41" customHeight="1" spans="1:11">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="41" customHeight="1" spans="1:11">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="41" customHeight="1" spans="1:11">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="41" customHeight="1" spans="1:11">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" ht="41" customHeight="1" spans="1:11">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="41" customHeight="1" spans="1:11">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" ht="41" customHeight="1" spans="1:11">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="41" customHeight="1" spans="1:11">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="41" customHeight="1" spans="1:11">
+      <c r="A13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" ht="41" customHeight="1" spans="1:10">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" ht="41" customHeight="1" spans="1:10">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" ht="41" customHeight="1" spans="1:10">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" ht="41" customHeight="1" spans="1:10">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" ht="41" customHeight="1" spans="1:10">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" ht="41" customHeight="1" spans="1:10">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="14"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12:B13">
+      <formula1>"UI,Functional,Security"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12:F13">
+      <formula1>"Positive, Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4 K5 K6:K13">
+      <formula1>"Pass,Fail"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12:I13">
+      <formula1>"Simple, Medium, High"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J4" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J6" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J7" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J8" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J9" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J10" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J11" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J12" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J3" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J5" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -3565,30 +4254,28 @@
         <v>37</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" t="s">
-        <v>111</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H2"/>
       <c r="I2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3600,22 +4287,22 @@
         <v>37</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>16</v>
@@ -3635,22 +4322,22 @@
         <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>16</v>
@@ -3658,7 +4345,7 @@
       <c r="J4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3670,22 +4357,22 @@
         <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>16</v>
@@ -3693,7 +4380,7 @@
       <c r="J5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3705,22 +4392,22 @@
         <v>37</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>16</v>
@@ -3740,19 +4427,19 @@
         <v>37</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="H7" t="s">
         <v>131</v>
@@ -3763,7 +4450,7 @@
       <c r="J7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3775,19 +4462,19 @@
         <v>37</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="H8" t="s">
         <v>140</v>
@@ -3798,7 +4485,7 @@
       <c r="J8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3810,7 +4497,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>142</v>
@@ -3833,7 +4520,7 @@
       <c r="J9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3845,7 +4532,7 @@
         <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>147</v>
@@ -3868,7 +4555,7 @@
       <c r="J10" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3880,7 +4567,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>152</v>
@@ -3903,7 +4590,7 @@
       <c r="J11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3915,7 +4602,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>156</v>
@@ -3938,7 +4625,7 @@
       <c r="J12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4032,11 +4719,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12:B13">
       <formula1>"UI,Functional,Security"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12:F13">
+      <formula1>"Positive, Negative"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 K3 K4 K5 K6:K13">
       <formula1>"Pass,Fail"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5 F6 F7 F8 F9 F10 F11 F12:F13">
-      <formula1>"Positive, Negative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I3 I4 I5 I6 I7 I8 I9 I10 I11 I12:I13">
       <formula1>"Simple, Medium, High"</formula1>

--- a/Excel Files/WC_Automation_Testcases.xlsx
+++ b/Excel Files/WC_Automation_Testcases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="199">
   <si>
     <t>Mavens i
 Welldercare
@@ -685,6 +685,21 @@
   </si>
   <si>
     <t>Profile_Update_TC_11</t>
+  </si>
+  <si>
+    <t>1685605213274
+Channel partner created successfully</t>
+  </si>
+  <si>
+    <t>Doctor not created</t>
+  </si>
+  <si>
+    <t>UserId :1685619021641
+Care manager created successfully</t>
+  </si>
+  <si>
+    <t>1685622939738
+Doctor created successfully</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +1916,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="16384" width="8.72727272727273" style="40" collapsed="1"/>
+    <col min="1" max="16384" style="40" width="8.72727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -2411,8 +2426,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.6363636363636" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5454545454545" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.6363636363636" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5454545454545" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
@@ -2759,17 +2774,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="2" collapsed="1"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.3636363636364" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.0909090909091" style="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.72727272727273" style="4" collapsed="1"/>
+    <col min="1" max="1" style="2" width="8.72727272727273" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.4545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5454545454545" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.3636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.4545454545455" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="16" width="19.0909090909091" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.4545454545455" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.1818181818182" collapsed="true"/>
+    <col min="11" max="11" style="4" width="8.72727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
@@ -2829,8 +2844,8 @@
       <c r="G2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>43</v>
+      <c r="H2" t="s">
+        <v>195</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>16</v>
@@ -2838,8 +2853,8 @@
       <c r="J2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
+      <c r="K2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:11">
@@ -2864,8 +2879,8 @@
       <c r="G3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>49</v>
+      <c r="H3" t="s">
+        <v>197</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>16</v>
@@ -2873,8 +2888,8 @@
       <c r="J3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="41" customHeight="1" spans="1:11">
@@ -2899,8 +2914,8 @@
       <c r="G4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>54</v>
+      <c r="H4" t="s">
+        <v>198</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>16</v>
@@ -2908,7 +2923,7 @@
       <c r="J4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3233,16 +3248,16 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J3" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J4" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J5" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J6" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J7" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J8" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J9" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J10" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J11" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J2" r:id="rId72" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J3" r:id="rId73" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J4" r:id="rId74" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J5" r:id="rId75" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J6" r:id="rId76" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J7" r:id="rId77" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J8" r:id="rId78" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J9" r:id="rId79" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J10" r:id="rId80" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J11" r:id="rId81" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3262,16 +3277,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="2"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="26.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="32.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="30.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="28.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="10.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="19.1818181818182" customWidth="1"/>
+    <col min="1" max="1" style="2" width="8.72727272727273" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.4545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.5454545454545" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.3636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.4545454545455" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.4545454545455" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.4545454545455" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.1818181818182" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
@@ -3613,10 +3628,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J3" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J4" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J5" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J2" r:id="rId30" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J3" r:id="rId31" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J4" r:id="rId32" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J5" r:id="rId33" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3636,17 +3651,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="2" collapsed="1"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5454545454545" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.3636363636364" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.9090909090909" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.2727272727273" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.4545454545455" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.1818181818182" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.72727272727273" style="4" collapsed="1"/>
+    <col min="1" max="1" style="2" width="8.72727272727273" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.4545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5454545454545" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="32.3636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.4545454545455" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="27.2727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.4545454545455" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.1818181818182" collapsed="true"/>
+    <col min="11" max="11" style="4" width="8.72727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
@@ -4170,17 +4185,17 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J4" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J6" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J7" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J8" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J9" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J10" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J11" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J12" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J3" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J5" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J2" r:id="rId79" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J4" r:id="rId80" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J6" r:id="rId81" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J7" r:id="rId82" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J8" r:id="rId83" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J9" r:id="rId84" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J10" r:id="rId85" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J11" r:id="rId86" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J12" r:id="rId87" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J3" r:id="rId88" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J5" r:id="rId89" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4198,17 +4213,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="2"/>
-    <col min="2" max="2" width="23.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="22.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="32.3636363636364" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="11.8181818181818" customWidth="1"/>
-    <col min="7" max="7" width="28.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="27.2727272727273" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="19.1818181818182" customWidth="1"/>
-    <col min="11" max="11" width="8.72727272727273" style="4"/>
+    <col min="1" max="1" style="2" width="8.72727272727273" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.4545454545455" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5454545454545" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="32.3636363636364" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.9090909090909" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.8181818181818" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.4545454545455" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="27.2727272727273" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.4545454545455" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.1818181818182" collapsed="true"/>
+    <col min="11" max="11" style="4" width="8.72727272727273" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:11">
@@ -4730,17 +4745,17 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J4" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J6" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J7" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J8" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J9" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J10" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J11" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J12" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J3" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
-    <hyperlink ref="J5" r:id="rId1" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J2" r:id="rId79" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J4" r:id="rId80" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J6" r:id="rId81" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J7" r:id="rId82" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J8" r:id="rId83" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J9" r:id="rId84" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J10" r:id="rId85" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J11" r:id="rId86" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J12" r:id="rId87" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J3" r:id="rId88" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
+    <hyperlink ref="J5" r:id="rId89" display="emarson.s@mavens-i.com" tooltip="mailto:emarson.s@mavens-i.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
